--- a/biology/Botanique/Square_du_Général-Anselin/Square_du_Général-Anselin.xlsx
+++ b/biology/Botanique/Square_du_Général-Anselin/Square_du_Général-Anselin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Anselin</t>
+          <t>Square_du_Général-Anselin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Général-Anselin est un square du 16e arrondissement de Paris, dans le quartier de la Porte-Dauphine, longeant le bois de Boulogne et le boulevard Lannes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Anselin</t>
+          <t>Square_du_Général-Anselin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est accessible par le 1, avenue de Pologne, par le boulevard Lannes[1] et par l'avenue du Maréchal-Fayolle.
-Il est ouvert 24 heures sur 24[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est accessible par le 1, avenue de Pologne, par le boulevard Lannes et par l'avenue du Maréchal-Fayolle.
+Il est ouvert 24 heures sur 24.
 Il est desservi par la ligne 2 à la station Porte Dauphine et par la ligne de RER C à la gare de l'avenue Foch.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Anselin</t>
+          <t>Square_du_Général-Anselin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut nommé ainsi en l'honneur d'Ernest Anselin (1861-1916), un général de brigade mort pour la France au cours de la Première Guerre mondiale.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Anselin</t>
+          <t>Square_du_Général-Anselin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S'inspirant d'un sous-bois dans son ordonnancement libre, le square abrite autour du gazon rustique des robiniers faux-acacia, des érables, des bouleaux et des aubépines. Il possède le label ÉcoJardin[1].
-Plusieurs espèces d'oiseaux y ont élu domicile, comme le pic épeiche, le pic vert, le roitelet huppé, le troglodyte mignon, la mésange charbonnière et la mésange bleue[1].
-Cinq agrès, deux tables de ping-pong, un terrain de basket-ball, un terrain de football, trois échiquiers, deux tables de pique-nique et un point d'eau potable y sont installés[1].
-L'accès aux personnes à mobilité réduite est limité à certaines zones. Les chiens y sont interdits[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'inspirant d'un sous-bois dans son ordonnancement libre, le square abrite autour du gazon rustique des robiniers faux-acacia, des érables, des bouleaux et des aubépines. Il possède le label ÉcoJardin.
+Plusieurs espèces d'oiseaux y ont élu domicile, comme le pic épeiche, le pic vert, le roitelet huppé, le troglodyte mignon, la mésange charbonnière et la mésange bleue.
+Cinq agrès, deux tables de ping-pong, un terrain de basket-ball, un terrain de football, trois échiquiers, deux tables de pique-nique et un point d'eau potable y sont installés.
+L'accès aux personnes à mobilité réduite est limité à certaines zones. Les chiens y sont interdits.
 De l'autre côté de l'avenue de Pologne se trouve le square Robert-Schuman, lui d'une disposition plus classique.
 Le square longe le bois de Boulogne.
 			Tables de ping pong.
